--- a/Dataset/Folds/Fold_3/Excel/36.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -881,6 +881,57 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%8,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%13,                            Zhibo%Liu%NULL%9,                            Jie%Xiang%NULL%15,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%9,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%8,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%9,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%8,                            Yi%Zhang%NULL%9,                            Hua%Chen%NULL%9,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Xiaorong%Hu%NULL%1,                             Wenlin%Cheng%NULL%6,                             Lei%Yu%NULL%6,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                             Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                             Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%14,                             Xingwang%Li%NULL%6,                             Lili%Ren%NULL%5,                             Jianping%Zhao%NULL%12,                             Yi%Hu%NULL%11,                             Li%Zhang%NULL%11,                             Guohui%Fan%NULL%14,                             Jiuyang%Xu%NULL%14,                             Xiaoying%Gu%NULL%14,                             Zhenshun%Cheng%NULL%7,                             Ting%Yu%NULL%24,                             Jiaan%Xia%NULL%6,                             Yuan%Wei%NULL%18,                             Wenjuan%Wu%NULL%5,                             Xuelei%Xie%NULL%6,                             Wen%Yin%NULL%9,                             Hui%Li%NULL%15,                             Min%Liu%NULL%5,                             Yan%Xiao%NULL%5,                             Hong%Gao%NULL%5,                             Li%Guo%NULL%6,                             Jungang%Xie%NULL%6,                             Guangfa%Wang%NULL%5,                             Rongmeng%Jiang%NULL%5,                             Zhancheng%Gao%NULL%5,                             Qi%Jin%NULL%5,                             Jianwei%Wang%wangjw28@163.com%5,                             Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                             Kun%Yang%NULL%8,                             Kun%Yang%NULL%0,                             Wenxia%Wang%NULL%8,                             Wenxia%Wang%NULL%0,                             Lingyu%Jiang%NULL%8,                             Lingyu%Jiang%NULL%0,                             Jianxin%Song%songsingsjx@sina.com%8,                             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%8,                             Jiqian%Xu%NULL%8,                             Huaqing%Shu%NULL%6,                             Jia'an%Xia%NULL%10,                             Hong%Liu%NULL%6,                             Yongran%Wu%NULL%8,                             Lu%Zhang%NULL%6,                             Zhui%Yu%NULL%6,                             Minghao%Fang%NULL%6,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%8,                             Shangwen%Pan%NULL%6,                             Xiaojing%Zou%NULL%6,                             Shiying%Yuan%NULL%6,                             You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%8,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%13,                             Zhibo%Liu%NULL%9,                             Jie%Xiang%NULL%15,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%9,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%8,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%9,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%8,                             Yi%Zhang%NULL%9,                             Hua%Chen%NULL%9,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                              Xiaorong%Hu%NULL%1,                              Wenlin%Cheng%NULL%6,                              Lei%Yu%NULL%6,                              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,                              Qiang%Liu%liuqiang@irm-cams.ac.cn%7,                              Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                              Yeming%Wang%NULL%14,                              Xingwang%Li%NULL%6,                              Lili%Ren%NULL%5,                              Jianping%Zhao%NULL%12,                              Yi%Hu%NULL%11,                              Li%Zhang%NULL%11,                              Guohui%Fan%NULL%14,                              Jiuyang%Xu%NULL%14,                              Xiaoying%Gu%NULL%14,                              Zhenshun%Cheng%NULL%7,                              Ting%Yu%NULL%24,                              Jiaan%Xia%NULL%6,                              Yuan%Wei%NULL%18,                              Wenjuan%Wu%NULL%5,                              Xuelei%Xie%NULL%6,                              Wen%Yin%NULL%9,                              Hui%Li%NULL%15,                              Min%Liu%NULL%5,                              Yan%Xiao%NULL%5,                              Hong%Gao%NULL%5,                              Li%Guo%NULL%6,                              Jungang%Xie%NULL%6,                              Guangfa%Wang%NULL%5,                              Rongmeng%Jiang%NULL%5,                              Zhancheng%Gao%NULL%5,                              Qi%Jin%NULL%5,                              Jianwei%Wang%wangjw28@163.com%5,                              Bin%Cao%caobin_ben@163.com%13]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                              Kun%Yang%NULL%8,                              Kun%Yang%NULL%0,                              Wenxia%Wang%NULL%8,                              Wenxia%Wang%NULL%0,                              Lingyu%Jiang%NULL%8,                              Lingyu%Jiang%NULL%0,                              Jianxin%Song%songsingsjx@sina.com%8,                              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%8,                              Jiqian%Xu%NULL%8,                              Huaqing%Shu%NULL%6,                              Jia'an%Xia%NULL%10,                              Hong%Liu%NULL%6,                              Yongran%Wu%NULL%8,                              Lu%Zhang%NULL%6,                              Zhui%Yu%NULL%6,                              Minghao%Fang%NULL%6,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%8,                              Shangwen%Pan%NULL%6,                              Xiaojing%Zou%NULL%6,                              Shiying%Yuan%NULL%6,                              You%Shang%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%8,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%13,                              Zhibo%Liu%NULL%9,                              Jie%Xiang%NULL%15,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%9,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%8,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%9,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%8,                              Yi%Zhang%NULL%9,                              Hua%Chen%NULL%9,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Xiaorong%Hu%NULL%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Qiang%Liu%liuqiang@irm-cams.ac.cn%0, Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%0, Kun%Yang%NULL%0, Wenxia%Wang%NULL%0, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%0, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%0, Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1234,10 +1285,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,22 +1299,22 @@
         <v>44036</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1286,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1298,10 +1349,10 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1312,22 +1363,22 @@
         <v>43878</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -1350,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1362,10 +1413,10 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1376,25 +1427,25 @@
         <v>43907</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -1408,25 +1459,25 @@
         <v>44013</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -1440,22 +1491,22 @@
         <v>44006</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1478,7 +1529,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1490,10 +1541,10 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1510,7 +1561,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1522,10 +1573,10 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
